--- a/BeidPoly8Auswertung.xlsx
+++ b/BeidPoly8Auswertung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YY\Desktop\muhammetdowland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YY\Documents\GitHub\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -611,57 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +619,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -689,6 +635,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -971,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -984,37 +984,37 @@
   <sheetData>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1030,15 +1030,15 @@
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1205,11 +1205,11 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1367,11 +1367,11 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1529,11 +1529,11 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1680,15 +1680,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
   <dimension ref="B2:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,21 +1716,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="L2" s="47" t="s">
+      <c r="I2" s="38"/>
+      <c r="L2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -1745,10 +1745,10 @@
       <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="38">
         <v>53.741000000000007</v>
       </c>
       <c r="L3" s="22" t="s">
@@ -1762,117 +1762,117 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="31">
         <v>4466802.9000000004</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="31">
         <v>5334969.0599999996</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="38">
         <v>2</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="38">
         <v>197</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="31">
         <v>32689831.124000002</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="31">
         <v>5336331.7039999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="31">
         <v>4468365.76</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="31">
         <v>5334320</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="38">
         <v>3</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="38">
         <v>206.9135</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="33">
         <v>153017</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="31">
         <v>32691418.164999999</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="31">
         <v>5335744.0750000002</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="31">
         <v>4468147.1399999997</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="32">
         <v>5334426.3</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="38">
         <v>4</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="38">
         <v>205.31575000000001</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="34">
         <v>153100</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="31">
         <v>32691195.557</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="31">
         <v>5335841.7709999997</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="31">
         <v>4468017.78</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="31">
         <v>5334485.84</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="33">
         <v>153000</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="31">
         <v>32691063.967999998</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="31">
         <v>5335896.2230000002</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="35" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1885,27 +1885,27 @@
       <c r="B11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="54"/>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="36"/>
+      <c r="H11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="38">
         <f>((ATAN((C5-C4)/(D5-D4))))+200</f>
         <v>198.82283204607222</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="38">
         <f>ABS(C4-4500000)</f>
         <v>33197.099999999627</v>
       </c>
@@ -1913,13 +1913,13 @@
         <v>87.977000000000004</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="38">
         <f t="shared" ref="C13" si="0">ABS(C5-4500000)</f>
         <v>31634.240000000224</v>
       </c>
@@ -1927,20 +1927,20 @@
         <v>87.474000000000004</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="45"/>
-      <c r="H13" s="56" t="s">
+      <c r="F13" s="28"/>
+      <c r="H13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="38">
         <f>I11+200+I3-400</f>
         <v>52.563832046072207</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="38">
         <f>ABS(C6-4500000)</f>
         <v>31852.860000000335</v>
       </c>
@@ -1948,43 +1948,43 @@
         <v>67.86</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="45"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="38">
         <f>ABS(C7-4500000)</f>
         <v>31982.219999999739</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="45"/>
-      <c r="H15" s="56" t="s">
+      <c r="F15" s="28"/>
+      <c r="H15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="38">
         <f>I13+200+I4-400</f>
         <v>49.563832046072207</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
-      <c r="F16" s="45"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="56" t="s">
+      <c r="F17" s="28"/>
+      <c r="H17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="38">
         <f>I15+200+I5-400</f>
         <v>56.477332046072206</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C18">
@@ -1992,10 +1992,10 @@
         <v>-73.560936830899848</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C19">
@@ -2003,22 +2003,22 @@
         <v>14.416063169100156</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
+      <c r="B20" s="28"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
+      <c r="B21" s="28"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
+      <c r="B22" s="28"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2029,7 +2029,7 @@
         <v>32415.669999999925</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="45"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2040,11 +2040,11 @@
         <v>5334644.5299999993</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
-      <c r="F25" s="45"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -2054,127 +2054,127 @@
         <v>6380000</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="45"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
-      <c r="F27" s="45"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
-      <c r="F28" s="45"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
-      <c r="F30" s="45"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
-      <c r="F31" s="45"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-      <c r="F32" s="45"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-      <c r="F33" s="45"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
-      <c r="F34" s="45"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
-      <c r="F35" s="45"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
-      <c r="F37" s="45"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
-      <c r="F39" s="45"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
-      <c r="F41" s="45"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
-      <c r="F42" s="45"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
-      <c r="F43" s="45"/>
+      <c r="F43" s="28"/>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
-      <c r="F44" s="45"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
-      <c r="F45" s="45"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
-      <c r="F46" s="45"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
-      <c r="F47" s="45"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
-      <c r="F49" s="45"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="F50" s="45"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
-      <c r="F51" s="45"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
-      <c r="F52" s="45"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
-      <c r="F53" s="45"/>
+      <c r="F53" s="28"/>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
-      <c r="F54" s="45"/>
+      <c r="F54" s="28"/>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
-      <c r="F55" s="45"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
-      <c r="F56" s="45"/>
+      <c r="F56" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2281,7 +2281,7 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="44">
+      <c r="B11" s="27">
         <v>153017</v>
       </c>
       <c r="C11" s="22">
